--- a/docs/SUS_Analysis.xlsx
+++ b/docs/SUS_Analysis.xlsx
@@ -8,18 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joconnor/projects/meng-project-iota-saev/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE304E1-DD7A-9845-9E0C-D75208801045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85965F99-2732-334E-95DE-D7B4C20C4AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{58B60E28-8C69-384D-9CB7-B47EA859DCB0}"/>
+    <workbookView xWindow="5600" yWindow="2100" windowWidth="45560" windowHeight="21960" xr2:uid="{58B60E28-8C69-384D-9CB7-B47EA859DCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="SUS" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">SUS!$A$75:$A$79</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">SUS!$C$75:$C$79</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="60">
   <si>
     <t>Question 1</t>
   </si>
@@ -85,59 +81,6 @@
   </si>
   <si>
     <t>Strongly Agree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Where are you located? </t>
-  </si>
-  <si>
-    <t>Europe</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>Asia</t>
-  </si>
-  <si>
-    <t>Oceania (Australia, New Zealand, etc.)</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Central America</t>
-  </si>
-  <si>
-    <t>South America</t>
-  </si>
-  <si>
-    <t>Middle East</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Queston </t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <r>
-      <t>The organization you work for is in which of the following:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFD93025"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t> *</t>
-    </r>
   </si>
   <si>
     <t>Responses</t>
@@ -241,6 +184,39 @@
   <si>
     <t>Mean</t>
   </si>
+  <si>
+    <t>2021 (367)</t>
+  </si>
+  <si>
+    <t>2020 (302)</t>
+  </si>
+  <si>
+    <t>2019 (218)</t>
+  </si>
+  <si>
+    <t>2018 (143)</t>
+  </si>
+  <si>
+    <t>2017 (113)</t>
+  </si>
+  <si>
+    <t>2016 (107)</t>
+  </si>
+  <si>
+    <t>Science Direct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IOTA + Security Papers Published </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IOTA + Trust Papers Published </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IOTA + Vulnerability Papers Published </t>
+  </si>
+  <si>
+    <t>IEEE Xplore</t>
+  </si>
 </sst>
 </file>
 
@@ -284,12 +260,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FFD93025"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -310,6 +280,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF505050"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -343,19 +319,23 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -995,6 +975,2550 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>IOTA + Security Papers Published </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Science Direct</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$8:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$8:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>305</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-93FF-A447-A6BD-142371A8C410}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IEEE Xplore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$8:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$8:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-93FF-A447-A6BD-142371A8C410}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2135173952"/>
+        <c:axId val="1842593344"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2135173952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1842593344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1842593344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2135173952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>IOTA + Trust Papers Published </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Science Direct</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$17:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$17:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-641C-8B4E-92E1-DF531D83F9FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IEEE Xplore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$17:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$17:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-641C-8B4E-92E1-DF531D83F9FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2135173952"/>
+        <c:axId val="1842593344"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2135173952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1842593344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1842593344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2135173952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>IOTA + Security Papers Published </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Science Direct</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$8:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$8:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>305</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0F8D-054D-8215-D2665AB874FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IEEE Xplore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$8:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$8:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0F8D-054D-8215-D2665AB874FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2135173952"/>
+        <c:axId val="1842593344"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2135173952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1842593344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1842593344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2135173952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Science Direct Analysis - IOTA Articles Published</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IOTA + Security Papers Published </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$26:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$8:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>305</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ADFF-514E-8177-334E1745B519}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IOTA + Trust Papers Published </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$26:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$17:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-ADFF-514E-8177-334E1745B519}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IOTA + Vulnerability Papers Published </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$26:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$26:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>168</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-ADFF-514E-8177-334E1745B519}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1862035824"/>
+        <c:axId val="1854250448"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1862035824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1854250448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1854250448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Articles Published</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1862035824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>IEEE</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Xplore Analysis - IOTA Articles Published</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IOTA + Security Papers Published </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$26:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$8:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6637-B54A-B23F-6A2AC160F4D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IOTA + Trust Papers Published </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$26:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$17:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6637-B54A-B23F-6A2AC160F4D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IOTA + Vulnerability Papers Published </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$26:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$26:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6637-B54A-B23F-6A2AC160F4D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1862035824"/>
+        <c:axId val="1854250448"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1862035824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1854250448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1854250448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Articles Published</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1862035824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -3529,6 +6053,206 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4541,6 +7265,2586 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9301,6 +14605,197 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78329A42-12CD-6A4A-AA3F-E44219F07C06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D74E0FE-4BC7-8F48-A8FE-B249222E6EF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBC58FD7-97FF-104D-8C88-5EEC5AC1A1E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F58D16B8-61A3-364A-98A6-1BC8E9FAB2CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{143FCDC7-2FDC-A745-A619-D5888697CEF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9600,8 +15095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFB2F10-8AEB-CE42-89A3-F7666456B833}">
   <dimension ref="A1:V157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9612,7 +15107,7 @@
   <sheetData>
     <row r="1" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -9822,7 +15317,7 @@
     </row>
     <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4">
         <f>SUM(B2:B6)</f>
@@ -9868,7 +15363,7 @@
     <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>0</v>
@@ -9903,7 +15398,7 @@
     </row>
     <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3">
         <f>B2*0</f>
@@ -10120,7 +15615,7 @@
     </row>
     <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B15" s="4">
         <f>SUM(B10:B14)</f>
@@ -10163,12 +15658,12 @@
         <v>43</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4">
         <f>(B15-B7)*2.5</f>
@@ -10248,12 +15743,12 @@
         <v>9</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -10286,7 +15781,7 @@
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="O21">
         <f>AVERAGE(L21:L59)</f>
@@ -10345,7 +15840,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -10430,7 +15925,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -10515,7 +16010,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -10600,7 +16095,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -10685,7 +16180,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -10770,7 +16265,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B39">
         <v>5</v>
@@ -10855,7 +16350,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -10940,7 +16435,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B45">
         <v>5</v>
@@ -11025,7 +16520,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B48">
         <v>4</v>
@@ -11110,7 +16605,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -11195,7 +16690,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B54">
         <v>4</v>
@@ -11280,45 +16775,45 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C61">
         <f>B21</f>
@@ -11367,7 +16862,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C62">
         <f>B24</f>
@@ -11416,7 +16911,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C63">
         <f>B27</f>
@@ -11465,7 +16960,7 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C64">
         <f>B30</f>
@@ -11514,7 +17009,7 @@
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C65">
         <f>B33</f>
@@ -11563,7 +17058,7 @@
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C66">
         <f>B36</f>
@@ -11612,7 +17107,7 @@
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C67">
         <f>B39</f>
@@ -11661,7 +17156,7 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C68">
         <f>B42</f>
@@ -11710,7 +17205,7 @@
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C69">
         <f>B45</f>
@@ -11759,7 +17254,7 @@
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C70">
         <f>B48</f>
@@ -11808,7 +17303,7 @@
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C71">
         <f>B51</f>
@@ -11857,7 +17352,7 @@
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C72">
         <f>B54</f>
@@ -12010,7 +17505,7 @@
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B77">
         <v>3</v>
@@ -12282,7 +17777,7 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B84">
         <v>3</v>
@@ -12426,45 +17921,45 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="M90" s="4" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C91" s="7">
         <f>AVERAGE(C61:C72)</f>
@@ -12509,7 +18004,7 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C92" s="7">
         <f>VAR(C61:C72)</f>
@@ -12554,7 +18049,7 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C93" s="7">
         <f>STDEV((C61:C72))</f>
@@ -12653,7 +18148,7 @@
     </row>
     <row r="124" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E124" s="4" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="125" spans="3:5" x14ac:dyDescent="0.2">
@@ -12664,7 +18159,7 @@
     </row>
     <row r="127" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E127" s="4" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128" spans="3:5" x14ac:dyDescent="0.2">
@@ -12675,7 +18170,7 @@
     </row>
     <row r="130" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E130" s="4" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131" spans="5:5" x14ac:dyDescent="0.2">
@@ -12686,7 +18181,7 @@
     </row>
     <row r="133" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E133" s="4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="134" spans="5:5" x14ac:dyDescent="0.2">
@@ -12697,7 +18192,7 @@
     </row>
     <row r="136" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E136" s="4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="137" spans="5:5" x14ac:dyDescent="0.2">
@@ -12708,7 +18203,7 @@
     </row>
     <row r="139" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E139" s="4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="140" spans="5:5" x14ac:dyDescent="0.2">
@@ -12719,7 +18214,7 @@
     </row>
     <row r="142" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E142" s="4" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="143" spans="5:5" x14ac:dyDescent="0.2">
@@ -12730,7 +18225,7 @@
     </row>
     <row r="145" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E145" s="4" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="146" spans="5:5" x14ac:dyDescent="0.2">
@@ -12741,7 +18236,7 @@
     </row>
     <row r="148" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E148" s="4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="149" spans="5:5" x14ac:dyDescent="0.2">
@@ -12752,7 +18247,7 @@
     </row>
     <row r="151" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E151" s="4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="152" spans="5:5" x14ac:dyDescent="0.2">
@@ -12763,7 +18258,7 @@
     </row>
     <row r="154" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E154" s="4" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="155" spans="5:5" x14ac:dyDescent="0.2">
@@ -12774,11 +18269,23 @@
     </row>
     <row r="157" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E157" s="4" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="C82:L86">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -12786,85 +18293,298 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66A1303-9108-D34B-8CE7-BB44E0537659}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A2:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.83203125" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
     </row>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>17</v>
-      </c>
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
     </row>
-    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
     </row>
-    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="11">
+        <v>2016</v>
+      </c>
+      <c r="C8" s="11">
+        <v>91</v>
+      </c>
+      <c r="D8" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="11">
+        <v>2017</v>
+      </c>
+      <c r="C9" s="11">
+        <v>93</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C10" s="11">
+        <v>129</v>
+      </c>
+      <c r="D10" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C11" s="11">
+        <v>186</v>
+      </c>
+      <c r="D11" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C12" s="11">
+        <v>241</v>
+      </c>
+      <c r="D12" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="11">
+        <v>305</v>
+      </c>
+      <c r="D13" s="11">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
+    <row r="14" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
     </row>
-    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
+    <row r="15" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
     </row>
-    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
+    <row r="16" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
+    <row r="17" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11">
+        <v>2016</v>
+      </c>
+      <c r="C17" s="11">
+        <v>30</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>23</v>
+    <row r="18" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11">
+        <v>2017</v>
+      </c>
+      <c r="C18" s="11">
+        <v>44</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>24</v>
+    <row r="19" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C19" s="11">
+        <v>49</v>
+      </c>
+      <c r="D19" s="11">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>25</v>
+    <row r="20" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C20" s="11">
+        <v>61</v>
+      </c>
+      <c r="D20" s="11">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>28</v>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C21" s="11">
+        <v>110</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C22" s="11">
+        <v>130</v>
+      </c>
+      <c r="D22" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="11">
+        <v>2016</v>
+      </c>
+      <c r="C26" s="11">
+        <v>47</v>
+      </c>
+      <c r="D26" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="11">
+        <v>2017</v>
+      </c>
+      <c r="C27" s="11">
+        <v>59</v>
+      </c>
+      <c r="D27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C28" s="11">
+        <v>63</v>
+      </c>
+      <c r="D28" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C29" s="11">
+        <v>94</v>
+      </c>
+      <c r="D29" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C30" s="11">
+        <v>123</v>
+      </c>
+      <c r="D30" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C31" s="11">
+        <v>168</v>
+      </c>
+      <c r="D31" s="11">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>